--- a/data/st_notices/2023-03-23.xlsx
+++ b/data/st_notices/2023-03-23.xlsx
@@ -466,39 +466,39 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>股票名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>公告标题</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>公告日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>公告发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>公告链接</t>
         </is>
@@ -530,7 +530,7 @@
           <t>2023-03-23 21:25:28:000</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300526/AN202303231584516568.html</t>
         </is>
@@ -562,7 +562,7 @@
           <t>2023-03-23 17:18:53:000</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600781/AN202303231584507976.html</t>
         </is>
@@ -594,7 +594,7 @@
           <t>2023-03-23 09:16:39:000</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002742/AN202303231584498199.html</t>
         </is>
@@ -626,7 +626,7 @@
           <t>2023-03-23 17:55:01:000</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002309/AN202303231584509879.html</t>
         </is>
@@ -658,7 +658,7 @@
           <t>2023-03-23 16:21:28:000</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600303/AN202303231584505759.html</t>
         </is>
@@ -690,7 +690,7 @@
           <t>2023-03-23 17:37:40:000</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300392/AN202303231584509271.html</t>
         </is>
@@ -722,7 +722,7 @@
           <t>2023-03-23 19:47:44:000</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002781/AN202303231584514184.html</t>
         </is>
@@ -754,7 +754,7 @@
           <t>2023-03-23 17:55:41:000</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600666/AN202303231584509908.html</t>
         </is>
@@ -786,7 +786,7 @@
           <t>2023-03-23 17:55:41:000</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600666/AN202303231584509905.html</t>
         </is>
@@ -818,7 +818,7 @@
           <t>2023-03-23 17:52:08:000</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600666/AN202303231584509668.html</t>
         </is>
@@ -850,7 +850,7 @@
           <t>2023-03-23 18:52:19:000</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300089/AN202303231584511842.html</t>
         </is>
@@ -882,7 +882,7 @@
           <t>2023-03-23 17:31:58:000</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600382/AN202303231584508593.html</t>
         </is>
@@ -914,7 +914,7 @@
           <t>2023-03-23 18:02:27:000</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600139/AN202303231584510199.html</t>
         </is>
@@ -946,7 +946,7 @@
           <t>2023-03-23 18:02:27:000</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600139/AN202303231584510198.html</t>
         </is>
@@ -978,7 +978,7 @@
           <t>2023-03-23 18:57:21:000</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300330/AN202303231584512021.html</t>
         </is>
@@ -1010,7 +1010,7 @@
           <t>2023-03-23 18:53:39:000</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300330/AN202303231584511928.html</t>
         </is>
@@ -1042,7 +1042,7 @@
           <t>2023-03-23 21:22:40:000</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002592/AN202303231584516755.html</t>
         </is>
@@ -1074,7 +1074,7 @@
           <t>2023-03-23 17:54:45:000</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300313/AN202303231584509831.html</t>
         </is>
@@ -1106,7 +1106,7 @@
           <t>2023-03-23 17:51:32:000</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/300313/AN202303231584509807.html</t>
         </is>
@@ -1138,7 +1138,7 @@
           <t>2023-03-23 17:54:57:000</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002482/AN202303231584509874.html</t>
         </is>
@@ -1170,7 +1170,7 @@
           <t>2023-03-23 18:07:32:000</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/002021/AN202303231584510451.html</t>
         </is>
@@ -1202,7 +1202,7 @@
           <t>2023-03-23 19:17:56:000</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/000038/AN202303231584513164.html</t>
         </is>
@@ -1234,7 +1234,7 @@
           <t>2023-03-23 19:16:40:000</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/000038/AN202303231584512873.html</t>
         </is>
@@ -1266,40 +1266,14 @@
           <t>2023-03-23 17:31:58:000</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://data.eastmoney.com/notices/detail/600671/AN202303231584508594.html</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F25" r:id="rId24"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
